--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_119_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_119_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.4892485076757094, 3.9459951984070774]</t>
+          <t>[3.4890720495072065, 3.9461716565755802]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.17202612431931064, 0.13003202173713424]</t>
+          <t>[-0.17184664831459884, 0.12985254573242244]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.7807500681013742</v>
+        <v>0.7804961115942743</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7807500681013742</v>
+        <v>0.7804961115942743</v>
       </c>
       <c r="W2" t="n">
         <v>16.90594594594622</v>
